--- a/examples/Spreadsheet_test.xlsx
+++ b/examples/Spreadsheet_test.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Parameter" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Filepath" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Server" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t xml:space="preserve">countries</t>
   </si>
@@ -59,7 +60,7 @@
     <t xml:space="preserve">timezone</t>
   </si>
   <si>
-    <t xml:space="preserve">CET</t>
+    <t xml:space="preserve">UTC</t>
   </si>
   <si>
     <t xml:space="preserve">constant exchanges</t>
@@ -80,31 +81,25 @@
     <t xml:space="preserve">residual global</t>
   </si>
   <si>
+    <t xml:space="preserve">data cleaning</t>
+  </si>
+  <si>
     <t xml:space="preserve">generation directory</t>
   </si>
   <si>
+    <t xml:space="preserve">test_data/downloads/generations/</t>
+  </si>
+  <si>
     <t xml:space="preserve">exchange directory</t>
   </si>
   <si>
-    <t xml:space="preserve">raw generation directory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_data/generations/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">raw exchange directory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test_data/exchanges/</t>
+    <t xml:space="preserve">test_data/downloads/exchanges/</t>
   </si>
   <si>
     <t xml:space="preserve">saving directory</t>
   </si>
   <si>
-    <t xml:space="preserve">saving generation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">saving exchanges</t>
+    <t xml:space="preserve">FU vector</t>
   </si>
   <si>
     <t xml:space="preserve">mapping file</t>
@@ -120,6 +115,27 @@
   </si>
   <si>
     <t xml:space="preserve">file grid losses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">host</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sftp-transparency.entsoe.eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">port</t>
+  </si>
+  <si>
+    <t xml:space="preserve">username</t>
+  </si>
+  <si>
+    <t xml:space="preserve">password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">remove unused</t>
   </si>
 </sst>
 </file>
@@ -168,12 +184,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -202,7 +225,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -211,38 +234,41 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="22.9489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -269,7 +295,7 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
@@ -277,19 +303,19 @@
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="0" t="n">
+      <c r="B3" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="0" t="n">
+      <c r="E3" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -297,19 +323,19 @@
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="n">
+      <c r="B4" s="2" t="n">
         <v>2017</v>
       </c>
-      <c r="C4" s="0" t="n">
+      <c r="C4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D4" s="0" t="n">
+      <c r="D4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="E4" s="0" t="n">
+      <c r="E4" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -317,7 +343,7 @@
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -325,7 +351,7 @@
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="2" t="s">
         <v>12</v>
       </c>
     </row>
@@ -333,7 +359,7 @@
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="n">
+      <c r="B7" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -342,7 +368,7 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="2" t="n">
+      <c r="B8" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -351,7 +377,7 @@
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="2" t="n">
+      <c r="B9" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -360,7 +386,7 @@
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="n">
+      <c r="B10" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -369,7 +395,7 @@
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="2" t="n">
+      <c r="B11" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -378,38 +404,46 @@
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="n">
+      <c r="B12" s="3" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="3" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="8.5234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.4642857142857"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="8.50510204081633"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="43.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -417,77 +451,139 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>24</v>
       </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="B7" s="2"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="2"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>32</v>
-      </c>
+      <c r="B11" s="2"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="23.94"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>